--- a/Girassal.Web/wwwroot/templates/fatura.xlsx
+++ b/Girassal.Web/wwwroot/templates/fatura.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E00BEA-0E99-4325-9B24-F4849A705320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D3CD9-7522-41DF-AB69-46D41A82F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2970" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23280" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatura" sheetId="1" r:id="rId1"/>
@@ -42,17 +42,17 @@
     <definedName name="FaxVendedor">Fatura!$B$8</definedName>
     <definedName name="NomeComprador">Fatura!$G$4</definedName>
     <definedName name="NomeVendedor">Fatura!$B$4</definedName>
-    <definedName name="outro">Fatura!$M$31</definedName>
+    <definedName name="outro">Fatura!$M$23</definedName>
     <definedName name="Subtotal">Fatura!#REF!</definedName>
     <definedName name="TaxaImposto">Fatura!#REF!</definedName>
     <definedName name="TelefoneComprador">Fatura!$G$7</definedName>
     <definedName name="TelefoneVendedor">Fatura!$B$7</definedName>
     <definedName name="TermosDeEnvio">#REF!</definedName>
-    <definedName name="TotalGeral">Fatura!$M$32</definedName>
-    <definedName name="TotalTaxas">Fatura!$M$30</definedName>
+    <definedName name="TotalGeral">Fatura!$M$24</definedName>
+    <definedName name="TotalTaxas">Fatura!$M$22</definedName>
     <definedName name="Transportadora">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Outro</t>
   </si>
@@ -275,7 +275,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -322,6 +322,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -337,9 +344,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -349,7 +353,238 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dotted">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dotted">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -627,8 +862,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="CommercialInvoice_Table1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -647,22 +882,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>132901</xdr:rowOff>
+      <xdr:colOff>144174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>999990</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>284451</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>571872</xdr:rowOff>
+      <xdr:rowOff>807725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3D6543-56DC-4BD9-9868-CDD85B038D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -671,7 +906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -684,8 +919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123825" y="390076"/>
-          <a:ext cx="1076190" cy="438971"/>
+          <a:off x="144174" y="50710"/>
+          <a:ext cx="2883477" cy="1014190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -694,25 +929,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115552</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>858434</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2590800" cy="911248"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3D6543-56DC-4BD9-9868-CDD85B038D3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCEA165-8A92-4D9F-A554-ACE01E81573D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,8 +964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="3171825" cy="1115608"/>
+          <a:off x="123826" y="5878177"/>
+          <a:ext cx="2590800" cy="911248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,7 +973,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -978,10 +1208,10 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M38"/>
+  <dimension ref="B1:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1059,47 +1289,57 @@
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="13"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="13"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="13"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
@@ -1118,23 +1358,23 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="35" t="str">
         <f>IFERROR(INDEX(#REF!,MATCH(F12,#REF!,0),2),"")</f>
         <v/>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -1187,26 +1427,26 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="22"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="20"/>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="35"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="20"/>
       <c r="K18" s="25"/>
       <c r="L18" s="24"/>
@@ -1215,12 +1455,12 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="20"/>
       <c r="K19" s="25"/>
       <c r="L19" s="24"/>
@@ -1229,485 +1469,668 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="20"/>
       <c r="K20" s="25"/>
       <c r="L20" s="24"/>
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="25"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10" t="s">
+      <c r="L23" s="9"/>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="G39" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="35" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(F47,#REF!,0),2),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+    </row>
+    <row r="48" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="51" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="K51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="30"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="25"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="25"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" s="21"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="9"/>
+      <c r="M57" s="31"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9"/>
+      <c r="M58" s="31"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="D52:I55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:M47"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B32:M32"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D17:I28"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D17:I20"/>
   </mergeCells>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="10" priority="34">
+    <cfRule type="expression" dxfId="21" priority="45">
       <formula>(NomeVendedor="")*bNomeVendedor</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="9" priority="29">
+    <cfRule type="expression" dxfId="20" priority="40">
       <formula>(NomeComprador="")*bNomeComprador</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>(fatTermos="")*bTermos</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12">
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="18" priority="31">
       <formula>(fatFOBIncoterm="")*bFOBIncoterm</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>(EndereçoVendedor="")*bEndereçoVendedor</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>(EndereçoLocalidadeCódigoPostalVendedor="")*bCidadeVendedor</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>(TelefoneVendedor="")*bTelefoneVendedor</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>(FaxVendedor="")*bFaxVendedor</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>(EndereçoComprador="")*bEndereçoComprador</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>(EndereçoLocalidadeCódigoPostalComprador="")*bCidadeComprador</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="G7:G9">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>(TelefoneComprador="")*bTelefoneComprador</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>(NomeVendedor="")*bNomeVendedor</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>(NomeComprador="")*bNomeComprador</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:D47">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>(fatTermos="")*bTermos</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:G47">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>(fatFOBIncoterm="")*bFOBIncoterm</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>(EndereçoVendedor="")*bEndereçoVendedor</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>(EndereçoLocalidadeCódigoPostalVendedor="")*bCidadeVendedor</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>(TelefoneVendedor="")*bTelefoneVendedor</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(FaxVendedor="")*bFaxVendedor</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(EndereçoComprador="")*bEndereçoComprador</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(EndereçoLocalidadeCódigoPostalComprador="")*bCidadeComprador</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G44">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(TelefoneComprador="")*bTelefoneComprador</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType encoding="utf-8"?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AssetExpire xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPFriendlyName xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <IntlLangReview xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">848664</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <SubmitterId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AcquiredFrom xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Complete</EditorialStatus>
-    <Markets xmlns="8289c1ac-6532-4c62-99f0-6d047703163c"/>
-    <OriginAsset xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AssetStart xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">2012-07-27T02:39:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <MarketSpecific xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</MarketSpecific>
-    <TPNamespace xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Value>332603</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <UserInfo>
-        <DisplayName>REDMOND\v-sa</DisplayName>
-        <AccountId>2467</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <OpenTemplate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TaxCatchAll xmlns="8289c1ac-6532-4c62-99f0-6d047703163c"/>
-    <Manager xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <NumericId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <ParentAssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">english</OriginalSourceMarket>
-    <ApprovalStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">InProgress</ApprovalStatus>
-    <TPComponent xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <EditorialTags xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPExecutable xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <LocComments xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <SourceTitle xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <CSXUpdate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</CSXUpdate>
-    <IntlLocPriority xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AssetType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">TP</AssetType>
-    <MachineTranslated xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</MachineTranslated>
-    <OutputCachingOn xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</OutputCachingOn>
-    <TemplateStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Complete</TemplateStatus>
-    <IsSearchable xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</IsSearchable>
-    <ContentItem xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <ShowIn xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <UALocComments xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <UALocRecommendation xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <LegacyData xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <ClipArtFilename xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPApplication xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <CSXHash xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">english</DirectSourceMarket>
-    <PrimaryImageGen xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</PrimaryImageGen>
-    <PlannedPubDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <Downloads xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">0</Downloads>
-    <ArtSampleDocs xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TrustLevel xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <Providers xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Excel 2007 Default</TemplateTemplateType>
-    <TimesCloned xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPAppVersion xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <VoteCount xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <UACurrentWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">TP103107638</AssetId>
-    <TPClientViewer xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <DSATActionTaken xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <APEditor xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <OOCacheId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <IsDeleted xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</IsDeleted>
-    <PublishTargets xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <BugNumber xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <Milestone xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <OriginalRelease xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">15</OriginalRelease>
-    <RecommendationsModifier xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101005EB5FCBB1E5ECD4D83FA6E62BA4F98FF04003B76559807ED7042AFCC9CD6E0E16B7A" ma:contentTypeVersion="56" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bb8166288bc6583df760821a8465e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8289c1ac-6532-4c62-99f0-6d047703163c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72dad6d391a7c203314e0cd163637bed" ns2:_="">
     <xsd:import namespace="8289c1ac-6532-4c62-99f0-6d047703163c"/>
@@ -2741,10 +3164,154 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AssetExpire xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPFriendlyName xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <IntlLangReview xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">848664</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <SubmitterId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AcquiredFrom xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Complete</EditorialStatus>
+    <Markets xmlns="8289c1ac-6532-4c62-99f0-6d047703163c"/>
+    <OriginAsset xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AssetStart xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">2012-07-27T02:39:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <MarketSpecific xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</MarketSpecific>
+    <TPNamespace xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Value>332603</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <UserInfo>
+        <DisplayName>REDMOND\v-sa</DisplayName>
+        <AccountId>2467</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <OpenTemplate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TaxCatchAll xmlns="8289c1ac-6532-4c62-99f0-6d047703163c"/>
+    <Manager xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <NumericId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <ParentAssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">english</OriginalSourceMarket>
+    <ApprovalStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">InProgress</ApprovalStatus>
+    <TPComponent xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <EditorialTags xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPExecutable xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <LocComments xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <SourceTitle xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <CSXUpdate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</CSXUpdate>
+    <IntlLocPriority xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AssetType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">TP</AssetType>
+    <MachineTranslated xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</MachineTranslated>
+    <OutputCachingOn xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</OutputCachingOn>
+    <TemplateStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Complete</TemplateStatus>
+    <IsSearchable xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</IsSearchable>
+    <ContentItem xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <ShowIn xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <UALocComments xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <UALocRecommendation xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <LegacyData xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <ClipArtFilename xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPApplication xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <CSXHash xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">english</DirectSourceMarket>
+    <PrimaryImageGen xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</PrimaryImageGen>
+    <PlannedPubDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <Downloads xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">0</Downloads>
+    <ArtSampleDocs xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TrustLevel xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <Providers xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Excel 2007 Default</TemplateTemplateType>
+    <TimesCloned xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPAppVersion xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <VoteCount xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <UACurrentWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">TP103107638</AssetId>
+    <TPClientViewer xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <DSATActionTaken xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <APEditor xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <OOCacheId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <IsDeleted xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</IsDeleted>
+    <PublishTargets xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <BugNumber xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <Milestone xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <OriginalRelease xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">15</OriginalRelease>
+    <RecommendationsModifier xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType encoding="utf-8"?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9AF64C7-C34D-4735-87E3-67F2A1E88198}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B69DBD35-2CA4-45CA-BCC5-A5388C7B721B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8289c1ac-6532-4c62-99f0-6d047703163c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2760,19 +3327,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B69DBD35-2CA4-45CA-BCC5-A5388C7B721B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9AF64C7-C34D-4735-87E3-67F2A1E88198}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8289c1ac-6532-4c62-99f0-6d047703163c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>